--- a/biology/Microbiologie/Colwellia_echini/Colwellia_echini.xlsx
+++ b/biology/Microbiologie/Colwellia_echini/Colwellia_echini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia echini est une des espèces du genre de bactéries marines Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae faisant partie de l'embranchement des Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de l'espèce C. echini, nommée A3, a été isolée des intestins de l'espèce d'oursin Strongylocentrotus droebachiensis prélevée à Øresund au Danemark[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de l'espèce C. echini, nommée A3, a été isolée des intestins de l'espèce d'oursin Strongylocentrotus droebachiensis prélevée à Øresund au Danemark.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce Colwellia echini est la suivante : e’chi.ni L. gen. masc. n. echini, isolé d'un oursin[2],[3].
-Phylogénie
-Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche A3 ont permis de classer cette bactérie parmi différentes espèces de Colwellia dans un clade formé des espèces Colwellia arctica et Colwellia asteriadis[2]. LA séquence de l'ARNR 16S présente une homologie de 97,5 % avec celle de l'espèce C. asteriadis. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria)[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce Colwellia echini est la suivante : e’chi.ni L. gen. masc. n. echini, isolé d'un oursin,.
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colwellia echini est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles positifs pour les tests catalase et oxydase[2].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche A3 ont permis de classer cette bactérie parmi différentes espèces de Colwellia dans un clade formé des espèces Colwellia arctica et Colwellia asteriadis. LA séquence de l'ARNR 16S présente une homologie de 97,5 % avec celle de l'espèce C. asteriadis. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria).
 </t>
         </is>
       </c>
@@ -604,12 +627,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia echini est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles positifs pour les tests catalase et oxydase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colwellia_echini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_echini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce a été isolé en mer au large d'Helsingør dans le détroit d'Øresund au Danemark dans les intestins d'une espèce d'oursin[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce a été isolé en mer au large d'Helsingør dans le détroit d'Øresund au Danemark dans les intestins d'une espèce d'oursin.
 </t>
         </is>
       </c>
